--- a/process/mapping.xlsx
+++ b/process/mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\targetsDemo\process\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\targetsIntro\process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB99F13-94DC-4D1B-919F-84BCFF793651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A475C841-7D28-49AE-8A68-5BEF9A216DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="18900" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>model</t>
   </si>
@@ -37,6 +37,60 @@
   </si>
   <si>
     <t>scenario_new</t>
+  </si>
+  <si>
+    <t>AEO.2020</t>
+  </si>
+  <si>
+    <t>AEO.2022</t>
+  </si>
+  <si>
+    <t>AEO.2021</t>
+  </si>
+  <si>
+    <t>EIA_Historic</t>
+  </si>
+  <si>
+    <t>EIA_STEO</t>
+  </si>
+  <si>
+    <t>EIA-860</t>
+  </si>
+  <si>
+    <t>REF2020</t>
+  </si>
+  <si>
+    <t>REF2021</t>
+  </si>
+  <si>
+    <t>REF2022</t>
+  </si>
+  <si>
+    <t>Historic</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>NT.Ref</t>
+  </si>
+  <si>
+    <t>AEO20</t>
+  </si>
+  <si>
+    <t>AEO21</t>
+  </si>
+  <si>
+    <t>AEO22</t>
+  </si>
+  <si>
+    <t>STEO</t>
+  </si>
+  <si>
+    <t>T860</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
@@ -354,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -382,6 +436,90 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
